--- a/Code/Results/Cases/Case_3_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.47661498730173</v>
+        <v>1.406305914058237</v>
       </c>
       <c r="C2">
-        <v>0.4786222832495355</v>
+        <v>0.3080582067633486</v>
       </c>
       <c r="D2">
-        <v>0.0463464932917006</v>
+        <v>0.02522507647812944</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5075952671469111</v>
+        <v>0.692197308576894</v>
       </c>
       <c r="G2">
-        <v>0.0007874338415705135</v>
+        <v>0.002420429848090936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4067177416724377</v>
+        <v>0.3014673189856438</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.423605852936106</v>
+        <v>2.355552748963788</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.020197796633056</v>
+        <v>1.267486375943577</v>
       </c>
       <c r="C3">
-        <v>0.4415637509716817</v>
+        <v>0.2955657763784814</v>
       </c>
       <c r="D3">
-        <v>0.04204796484765438</v>
+        <v>0.0237497511240008</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4708661725959189</v>
+        <v>0.6916207774384944</v>
       </c>
       <c r="G3">
-        <v>0.0007922224023868177</v>
+        <v>0.002423550382351923</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3581370849294245</v>
+        <v>0.2901248941801242</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.35306633609747</v>
+        <v>2.369412810402082</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.740809274307367</v>
+        <v>1.18227271276038</v>
       </c>
       <c r="C4">
-        <v>0.4188953687431933</v>
+        <v>0.2879004649577155</v>
       </c>
       <c r="D4">
-        <v>0.03941195742550718</v>
+        <v>0.02284106791326224</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4498507790205437</v>
+        <v>0.6918918423909446</v>
       </c>
       <c r="G4">
-        <v>0.0007952543018234781</v>
+        <v>0.002425568306331232</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3288009956889653</v>
+        <v>0.2833379650290766</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.314911437569407</v>
+        <v>2.38006358789346</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627116821973857</v>
+        <v>1.147554754435419</v>
       </c>
       <c r="C5">
-        <v>0.4096763227481688</v>
+        <v>0.2847783730288711</v>
       </c>
       <c r="D5">
-        <v>0.03833822797689379</v>
+        <v>0.02247008952500806</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.441647285488223</v>
+        <v>0.6921590727995479</v>
       </c>
       <c r="G5">
-        <v>0.0007965134324345914</v>
+        <v>0.002426416329588523</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3169580297869601</v>
+        <v>0.2806168046047048</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.300577505304432</v>
+        <v>2.384940698703673</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.60824647175815</v>
+        <v>1.141790356792797</v>
       </c>
       <c r="C6">
-        <v>0.4081465407582101</v>
+        <v>0.2842600567945794</v>
       </c>
       <c r="D6">
-        <v>0.03815995402538164</v>
+        <v>0.02240844846156165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4403061420395034</v>
+        <v>0.6922129027559052</v>
       </c>
       <c r="G6">
-        <v>0.0007967239513338997</v>
+        <v>0.002426558697915185</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3149979211718232</v>
+        <v>0.2801676489233955</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.298268404053118</v>
+        <v>2.385782920073552</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.739275396376115</v>
+        <v>1.181804462338391</v>
       </c>
       <c r="C7">
-        <v>0.4187709663792702</v>
+        <v>0.2878583525116483</v>
       </c>
       <c r="D7">
-        <v>0.03939747531215687</v>
+        <v>0.0228360674945165</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.449738717565225</v>
+        <v>0.691894812142948</v>
       </c>
       <c r="G7">
-        <v>0.0007952711866071032</v>
+        <v>0.002425579639012169</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3286408404485712</v>
+        <v>0.2833010860924929</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.31471331293281</v>
+        <v>2.380127190634568</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.319031420088322</v>
+        <v>1.35843734846668</v>
       </c>
       <c r="C8">
-        <v>0.4658247842666867</v>
+        <v>0.3037499374159722</v>
       </c>
       <c r="D8">
-        <v>0.04486344216323346</v>
+        <v>0.02471698759708829</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4945961399467933</v>
+        <v>0.6918685431868994</v>
       </c>
       <c r="G8">
-        <v>0.000789066243232239</v>
+        <v>0.002421484705534844</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3898573302155199</v>
+        <v>0.2975196149965598</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.398162615281223</v>
+        <v>2.359886532134112</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.465385679007625</v>
+        <v>1.70493074619236</v>
       </c>
       <c r="C9">
-        <v>0.558933267338972</v>
+        <v>0.3349420315788336</v>
       </c>
       <c r="D9">
-        <v>0.05562724954008758</v>
+        <v>0.02838197612705073</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.596000720638223</v>
+        <v>0.6967961153916917</v>
       </c>
       <c r="G9">
-        <v>0.0007775995728011779</v>
+        <v>0.002414259522464376</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5144036315924012</v>
+        <v>0.3268127416539244</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.606683314202257</v>
+        <v>2.33724726552731</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.317495378899423</v>
+        <v>1.959518968247835</v>
       </c>
       <c r="C10">
-        <v>0.6280953090655146</v>
+        <v>0.3578632555122567</v>
       </c>
       <c r="D10">
-        <v>0.06359268854178168</v>
+        <v>0.03105918714922495</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6805635556488596</v>
+        <v>0.703480557918482</v>
       </c>
       <c r="G10">
-        <v>0.0007695629651004237</v>
+        <v>0.002409436876486115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.609546453693028</v>
+        <v>0.3492016812680987</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.793168376197087</v>
+        <v>2.331106556592147</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.708300133041348</v>
+        <v>2.075333049838832</v>
       </c>
       <c r="C11">
-        <v>0.6597842122585007</v>
+        <v>0.3682891068921208</v>
       </c>
       <c r="D11">
-        <v>0.06723633412723018</v>
+        <v>0.03227354665310855</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7216710226509235</v>
+        <v>0.7071931086704524</v>
       </c>
       <c r="G11">
-        <v>0.0007659816517826459</v>
+        <v>0.002407347322000854</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6538376686212786</v>
+        <v>0.3595770672998526</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.886672607248954</v>
+        <v>2.330612244794082</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.856835623430015</v>
+        <v>2.119187620851108</v>
       </c>
       <c r="C12">
-        <v>0.6718221069365313</v>
+        <v>0.3722366847980538</v>
       </c>
       <c r="D12">
-        <v>0.06861967001074021</v>
+        <v>0.0327328638325497</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7376582013241517</v>
+        <v>0.7086960242149019</v>
       </c>
       <c r="G12">
-        <v>0.0007646353771183932</v>
+        <v>0.002406570977775326</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6707746998701367</v>
+        <v>0.3635334418081868</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.923458841734629</v>
+        <v>2.330757309883751</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.824820041738462</v>
+        <v>2.109742858651657</v>
       </c>
       <c r="C13">
-        <v>0.6692277497093357</v>
+        <v>0.3713865287621729</v>
       </c>
       <c r="D13">
-        <v>0.06832157379156456</v>
+        <v>0.03263396587873046</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7341956736511008</v>
+        <v>0.7083680207820748</v>
       </c>
       <c r="G13">
-        <v>0.0007649248955565062</v>
+        <v>0.002406737514783114</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6671193413554306</v>
+        <v>0.3626801446632157</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.915472757086974</v>
+        <v>2.330711264554083</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.720508748389022</v>
+        <v>2.078941036231811</v>
       </c>
       <c r="C14">
-        <v>0.6607737829027371</v>
+        <v>0.3686138875579843</v>
       </c>
       <c r="D14">
-        <v>0.06735006642283992</v>
+        <v>0.03231134582638617</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7229776182641956</v>
+        <v>0.7073148067516541</v>
       </c>
       <c r="G14">
-        <v>0.0007658706997731689</v>
+        <v>0.002407283152835597</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6552276646520028</v>
+        <v>0.3599020104159791</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.88967061830121</v>
+        <v>2.330617511226762</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.656688998284778</v>
+        <v>2.060073755236147</v>
       </c>
       <c r="C15">
-        <v>0.6556006009718658</v>
+        <v>0.3669154951828659</v>
       </c>
       <c r="D15">
-        <v>0.06675547571963136</v>
+        <v>0.03211366129069404</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7161623007203559</v>
+        <v>0.7066823353826663</v>
       </c>
       <c r="G15">
-        <v>0.0007664512943310479</v>
+        <v>0.00240761931367547</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6479657578091889</v>
+        <v>0.3582038978288011</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.874049640041335</v>
+        <v>2.330603401951294</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.292026745388171</v>
+        <v>1.951950103920922</v>
       </c>
       <c r="C16">
-        <v>0.6260293763997993</v>
+        <v>0.3571818528491519</v>
       </c>
       <c r="D16">
-        <v>0.06335502859891307</v>
+        <v>0.03097975266635444</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6779336340098467</v>
+        <v>0.7032514904835807</v>
       </c>
       <c r="G16">
-        <v>0.000769798443314759</v>
+        <v>0.002409575526326334</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6066738871483324</v>
+        <v>0.3485274631135553</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.787243108614291</v>
+        <v>2.331185265514335</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.069192865112939</v>
+        <v>1.885618618251101</v>
       </c>
       <c r="C17">
-        <v>0.6079501368019748</v>
+        <v>0.351210072123564</v>
       </c>
       <c r="D17">
-        <v>0.06127457580903695</v>
+        <v>0.03028321508832477</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6551857779132177</v>
+        <v>0.7013191570138844</v>
       </c>
       <c r="G17">
-        <v>0.0007718703402810734</v>
+        <v>0.00241080225937435</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5816148515604169</v>
+        <v>0.3426401157529995</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.736300926030026</v>
+        <v>2.332132248877087</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.94131780835761</v>
+        <v>1.847466666536661</v>
       </c>
       <c r="C18">
-        <v>0.5975724260559616</v>
+        <v>0.3477751734332628</v>
       </c>
       <c r="D18">
-        <v>0.0600798045898685</v>
+        <v>0.02988225572165959</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6423475852667053</v>
+        <v>0.7002709325026046</v>
       </c>
       <c r="G18">
-        <v>0.0007730691140711597</v>
+        <v>0.002411517664471684</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5672953748799614</v>
+        <v>0.3392718017769454</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.707808004312653</v>
+        <v>2.332893235719609</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.898069252556638</v>
+        <v>1.834549154660294</v>
       </c>
       <c r="C19">
-        <v>0.5940621606003731</v>
+        <v>0.3466121699047449</v>
       </c>
       <c r="D19">
-        <v>0.05967557401710621</v>
+        <v>0.0297464420792366</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6380418087157693</v>
+        <v>0.6999268629325428</v>
       </c>
       <c r="G19">
-        <v>0.0007734762375088066</v>
+        <v>0.002411761577383157</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5624625888812318</v>
+        <v>0.3381344272358433</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.698295691494224</v>
+        <v>2.333187993753342</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.092882954521144</v>
+        <v>1.892679714223164</v>
       </c>
       <c r="C20">
-        <v>0.6098724929587718</v>
+        <v>0.3518457897349379</v>
       </c>
       <c r="D20">
-        <v>0.06149584742694003</v>
+        <v>0.03035739700015938</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6575816026987553</v>
+        <v>0.7015183126811451</v>
       </c>
       <c r="G20">
-        <v>0.0007716490570764276</v>
+        <v>0.002410670655700783</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5842725821271841</v>
+        <v>0.3432649776916037</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.741639302034855</v>
+        <v>2.332009042020871</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.751131925627931</v>
+        <v>2.087988338685079</v>
       </c>
       <c r="C21">
-        <v>0.6632558411768912</v>
+        <v>0.3694282945250222</v>
       </c>
       <c r="D21">
-        <v>0.06763531918422672</v>
+        <v>0.03240612188593417</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7262608706259215</v>
+        <v>0.7076215236367602</v>
       </c>
       <c r="G21">
-        <v>0.0007655926326944626</v>
+        <v>0.002407122481466307</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6587158976002456</v>
+        <v>0.3607172707161368</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.897210823920602</v>
+        <v>2.33063601863779</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.184566980926377</v>
+        <v>2.215623042114771</v>
       </c>
       <c r="C22">
-        <v>0.6983692902982455</v>
+        <v>0.3809166255877301</v>
       </c>
       <c r="D22">
-        <v>0.07166897112323767</v>
+        <v>0.03374195411602443</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7736204689358317</v>
+        <v>0.7121762343891049</v>
       </c>
       <c r="G22">
-        <v>0.0007616916241167029</v>
+        <v>0.002404890504305856</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7083405291080425</v>
+        <v>0.3722833198608271</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.006988547279406</v>
+        <v>2.331676034634938</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.952907119353256</v>
+        <v>2.147503571987556</v>
       </c>
       <c r="C23">
-        <v>0.6796061356312464</v>
+        <v>0.3747854471322398</v>
       </c>
       <c r="D23">
-        <v>0.06951395865734611</v>
+        <v>0.03302929086459017</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7481028757666621</v>
+        <v>0.7096933691474305</v>
       </c>
       <c r="G23">
-        <v>0.0007637687241244111</v>
+        <v>0.002406073819331144</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.68175907344758</v>
+        <v>0.3660956510342004</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.947610253920914</v>
+        <v>2.330943149096555</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.082171939455634</v>
+        <v>1.889487445859572</v>
       </c>
       <c r="C24">
-        <v>0.6090033454176194</v>
+        <v>0.3515583868961301</v>
       </c>
       <c r="D24">
-        <v>0.06139580650183518</v>
+        <v>0.03032386094601947</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6564977062915887</v>
+        <v>0.701428079130423</v>
       </c>
       <c r="G24">
-        <v>0.000771749075461817</v>
+        <v>0.002410730122138383</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5830707516913236</v>
+        <v>0.3429824265300709</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.739223357596472</v>
+        <v>2.332064069401355</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.153849634235144</v>
+        <v>1.611188037029365</v>
       </c>
       <c r="C25">
-        <v>0.5336314889653124</v>
+        <v>0.3265020420094231</v>
       </c>
       <c r="D25">
-        <v>0.05270763552687896</v>
+        <v>0.02739313356759254</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5669450215160694</v>
+        <v>0.6949270506254379</v>
       </c>
       <c r="G25">
-        <v>0.0007806304579218419</v>
+        <v>0.002416128470682645</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4801405787974886</v>
+        <v>0.3187364039770273</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.544884233727572</v>
+        <v>2.341536183995032</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.406305914058237</v>
+        <v>3.476614987301787</v>
       </c>
       <c r="C2">
-        <v>0.3080582067633486</v>
+        <v>0.478622283249365</v>
       </c>
       <c r="D2">
-        <v>0.02522507647812944</v>
+        <v>0.04634649329168639</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.692197308576894</v>
+        <v>0.5075952671468897</v>
       </c>
       <c r="G2">
-        <v>0.002420429848090936</v>
+        <v>0.0007874338416266317</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3014673189856438</v>
+        <v>0.4067177416723382</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.355552748963788</v>
+        <v>1.423605852936191</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.267486375943577</v>
+        <v>3.02019779663317</v>
       </c>
       <c r="C3">
-        <v>0.2955657763784814</v>
+        <v>0.4415637509716248</v>
       </c>
       <c r="D3">
-        <v>0.0237497511240008</v>
+        <v>0.04204796484765438</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6916207774384944</v>
+        <v>0.4708661725959189</v>
       </c>
       <c r="G3">
-        <v>0.002423550382351923</v>
+        <v>0.000792222402423659</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2901248941801242</v>
+        <v>0.3581370849294103</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.369412810402082</v>
+        <v>1.35306633609747</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.18227271276038</v>
+        <v>2.740809274307367</v>
       </c>
       <c r="C4">
-        <v>0.2879004649577155</v>
+        <v>0.4188953687428523</v>
       </c>
       <c r="D4">
-        <v>0.02284106791326224</v>
+        <v>0.03941195742542192</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6918918423909446</v>
+        <v>0.4498507790205437</v>
       </c>
       <c r="G4">
-        <v>0.002425568306331232</v>
+        <v>0.0007952543018211352</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2833379650290766</v>
+        <v>0.3288009956888942</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.38006358789346</v>
+        <v>1.314911437569464</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.147554754435419</v>
+        <v>2.627116821973857</v>
       </c>
       <c r="C5">
-        <v>0.2847783730288711</v>
+        <v>0.4096763227476856</v>
       </c>
       <c r="D5">
-        <v>0.02247008952500806</v>
+        <v>0.03833822797701458</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6921590727995479</v>
+        <v>0.441647285488223</v>
       </c>
       <c r="G5">
-        <v>0.002426416329588523</v>
+        <v>0.0007965134323191236</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2806168046047048</v>
+        <v>0.3169580297869459</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.384940698703673</v>
+        <v>1.300577505304375</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.141790356792797</v>
+        <v>2.60824647175798</v>
       </c>
       <c r="C6">
-        <v>0.2842600567945794</v>
+        <v>0.4081465407578122</v>
       </c>
       <c r="D6">
-        <v>0.02240844846156165</v>
+        <v>0.03815995402539585</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6922129027559052</v>
+        <v>0.4403061420395318</v>
       </c>
       <c r="G6">
-        <v>0.002426558697915185</v>
+        <v>0.0007967239512591991</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2801676489233955</v>
+        <v>0.3149979211717948</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.385782920073552</v>
+        <v>1.29826840405309</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.181804462338391</v>
+        <v>2.739275396376058</v>
       </c>
       <c r="C7">
-        <v>0.2878583525116483</v>
+        <v>0.4187709663795545</v>
       </c>
       <c r="D7">
-        <v>0.0228360674945165</v>
+        <v>0.03939747531215687</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.691894812142948</v>
+        <v>0.449738717565225</v>
       </c>
       <c r="G7">
-        <v>0.002425579639012169</v>
+        <v>0.000795271186529318</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2833010860924929</v>
+        <v>0.3286408404485712</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.380127190634568</v>
+        <v>1.314713312932781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.35843734846668</v>
+        <v>3.319031420088493</v>
       </c>
       <c r="C8">
-        <v>0.3037499374159722</v>
+        <v>0.4658247842664309</v>
       </c>
       <c r="D8">
-        <v>0.02471698759708829</v>
+        <v>0.04486344216336136</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6918685431868994</v>
+        <v>0.4945961399468217</v>
       </c>
       <c r="G8">
-        <v>0.002421484705534844</v>
+        <v>0.0007890662431749333</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2975196149965598</v>
+        <v>0.3898573302154631</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.359886532134112</v>
+        <v>1.398162615281223</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.70493074619236</v>
+        <v>4.465385679007568</v>
       </c>
       <c r="C9">
-        <v>0.3349420315788336</v>
+        <v>0.5589332673382046</v>
       </c>
       <c r="D9">
-        <v>0.02838197612705073</v>
+        <v>0.05562724954008047</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6967961153916917</v>
+        <v>0.5960007206382159</v>
       </c>
       <c r="G9">
-        <v>0.002414259522464376</v>
+        <v>0.0007775995728252197</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3268127416539244</v>
+        <v>0.5144036315923159</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.33724726552731</v>
+        <v>1.606683314202229</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.959518968247835</v>
+        <v>5.317495378899366</v>
       </c>
       <c r="C10">
-        <v>0.3578632555122567</v>
+        <v>0.6280953090655146</v>
       </c>
       <c r="D10">
-        <v>0.03105918714922495</v>
+        <v>0.06359268854159694</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.703480557918482</v>
+        <v>0.6805635556488454</v>
       </c>
       <c r="G10">
-        <v>0.002409436876486115</v>
+        <v>0.0007695629651262489</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3492016812680987</v>
+        <v>0.6095464536930564</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.331106556592147</v>
+        <v>1.793168376197144</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.075333049838832</v>
+        <v>5.708300133041234</v>
       </c>
       <c r="C11">
-        <v>0.3682891068921208</v>
+        <v>0.6597842122584723</v>
       </c>
       <c r="D11">
-        <v>0.03227354665310855</v>
+        <v>0.06723633412727992</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7071931086704524</v>
+        <v>0.7216710226509377</v>
       </c>
       <c r="G11">
-        <v>0.002407347322000854</v>
+        <v>0.0007659816517518927</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3595770672998526</v>
+        <v>0.6538376686212786</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.330612244794082</v>
+        <v>1.886672607249011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.119187620851108</v>
+        <v>5.856835623429959</v>
       </c>
       <c r="C12">
-        <v>0.3722366847980538</v>
+        <v>0.6718221069364745</v>
       </c>
       <c r="D12">
-        <v>0.0327328638325497</v>
+        <v>0.06861967001062652</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7086960242149019</v>
+        <v>0.7376582013241233</v>
       </c>
       <c r="G12">
-        <v>0.002406570977775326</v>
+        <v>0.0007646353771193554</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3635334418081868</v>
+        <v>0.670774699870023</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.330757309883751</v>
+        <v>1.923458841734657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.109742858651657</v>
+        <v>5.824820041738462</v>
       </c>
       <c r="C13">
-        <v>0.3713865287621729</v>
+        <v>0.6692277497090231</v>
       </c>
       <c r="D13">
-        <v>0.03263396587873046</v>
+        <v>0.06832157379173509</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7083680207820748</v>
+        <v>0.7341956736510582</v>
       </c>
       <c r="G13">
-        <v>0.002406737514783114</v>
+        <v>0.0007649248955558519</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3626801446632157</v>
+        <v>0.6671193413553596</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.330711264554083</v>
+        <v>1.915472757086974</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.078941036231811</v>
+        <v>5.720508748389136</v>
       </c>
       <c r="C14">
-        <v>0.3686138875579843</v>
+        <v>0.660773782902794</v>
       </c>
       <c r="D14">
-        <v>0.03231134582638617</v>
+        <v>0.06735006642278307</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.7073148067516541</v>
+        <v>0.7229776182641956</v>
       </c>
       <c r="G14">
-        <v>0.002407283152835597</v>
+        <v>0.0007658706997723481</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3599020104159791</v>
+        <v>0.6552276646520454</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.330617511226762</v>
+        <v>1.88967061830121</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.060073755236147</v>
+        <v>5.656688998285006</v>
       </c>
       <c r="C15">
-        <v>0.3669154951828659</v>
+        <v>0.6556006009718942</v>
       </c>
       <c r="D15">
-        <v>0.03211366129069404</v>
+        <v>0.06675547571934004</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7066823353826663</v>
+        <v>0.7161623007203559</v>
       </c>
       <c r="G15">
-        <v>0.00240761931367547</v>
+        <v>0.0007664512943029471</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3582038978288011</v>
+        <v>0.6479657578091462</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.330603401951294</v>
+        <v>1.874049640041335</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.951950103920922</v>
+        <v>5.292026745388341</v>
       </c>
       <c r="C16">
-        <v>0.3571818528491519</v>
+        <v>0.6260293764001688</v>
       </c>
       <c r="D16">
-        <v>0.03097975266635444</v>
+        <v>0.06335502859887043</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7032514904835807</v>
+        <v>0.677933634009861</v>
       </c>
       <c r="G16">
-        <v>0.002409575526326334</v>
+        <v>0.0007697984434243318</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3485274631135553</v>
+        <v>0.6066738871481903</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.331185265514335</v>
+        <v>1.787243108614234</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.885618618251101</v>
+        <v>5.069192865112825</v>
       </c>
       <c r="C17">
-        <v>0.351210072123564</v>
+        <v>0.6079501368017475</v>
       </c>
       <c r="D17">
-        <v>0.03028321508832477</v>
+        <v>0.06127457580898721</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7013191570138844</v>
+        <v>0.655185777913232</v>
       </c>
       <c r="G17">
-        <v>0.00241080225937435</v>
+        <v>0.0007718703402814909</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3426401157529995</v>
+        <v>0.5816148515604311</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.332132248877087</v>
+        <v>1.736300926030026</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.847466666536661</v>
+        <v>4.941317808357724</v>
       </c>
       <c r="C18">
-        <v>0.3477751734332628</v>
+        <v>0.5975724260560469</v>
       </c>
       <c r="D18">
-        <v>0.02988225572165959</v>
+        <v>0.06007980458980455</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7002709325026046</v>
+        <v>0.6423475852667053</v>
       </c>
       <c r="G18">
-        <v>0.002411517664471684</v>
+        <v>0.0007730691140957704</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3392718017769454</v>
+        <v>0.5672953748800182</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.332893235719609</v>
+        <v>1.707808004312653</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.834549154660294</v>
+        <v>4.898069252556752</v>
       </c>
       <c r="C19">
-        <v>0.3466121699047449</v>
+        <v>0.5940621606008563</v>
       </c>
       <c r="D19">
-        <v>0.0297464420792366</v>
+        <v>0.05967557401711332</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6999268629325428</v>
+        <v>0.6380418087157693</v>
       </c>
       <c r="G19">
-        <v>0.002411761577383157</v>
+        <v>0.0007734762375092962</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3381344272358433</v>
+        <v>0.5624625888813881</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.333187993753342</v>
+        <v>1.698295691494167</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.892679714223164</v>
+        <v>5.092882954521201</v>
       </c>
       <c r="C20">
-        <v>0.3518457897349379</v>
+        <v>0.6098724929589991</v>
       </c>
       <c r="D20">
-        <v>0.03035739700015938</v>
+        <v>0.06149584742672687</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7015183126811451</v>
+        <v>0.6575816026987411</v>
       </c>
       <c r="G20">
-        <v>0.002410670655700783</v>
+        <v>0.0007716490570760147</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3432649776916037</v>
+        <v>0.5842725821271273</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.332009042020871</v>
+        <v>1.741639302034827</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.087988338685079</v>
+        <v>5.751131925627874</v>
       </c>
       <c r="C21">
-        <v>0.3694282945250222</v>
+        <v>0.6632558411769764</v>
       </c>
       <c r="D21">
-        <v>0.03240612188593417</v>
+        <v>0.06763531918423382</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.7076215236367602</v>
+        <v>0.7262608706259073</v>
       </c>
       <c r="G21">
-        <v>0.002407122481466307</v>
+        <v>0.0007655926327224155</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3607172707161368</v>
+        <v>0.658715897600274</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.33063601863779</v>
+        <v>1.897210823920602</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.215623042114771</v>
+        <v>6.184566980926604</v>
       </c>
       <c r="C22">
-        <v>0.3809166255877301</v>
+        <v>0.6983692902982739</v>
       </c>
       <c r="D22">
-        <v>0.03374195411602443</v>
+        <v>0.0716689711234153</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7121762343891049</v>
+        <v>0.7736204689358459</v>
       </c>
       <c r="G22">
-        <v>0.002404890504305856</v>
+        <v>0.0007616916240603916</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3722833198608271</v>
+        <v>0.7083405291079998</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.331676034634938</v>
+        <v>2.006988547279406</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.147503571987556</v>
+        <v>5.952907119353142</v>
       </c>
       <c r="C23">
-        <v>0.3747854471322398</v>
+        <v>0.6796061356312464</v>
       </c>
       <c r="D23">
-        <v>0.03302929086459017</v>
+        <v>0.06951395865728216</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7096933691474305</v>
+        <v>0.7481028757666621</v>
       </c>
       <c r="G23">
-        <v>0.002406073819331144</v>
+        <v>0.0007637687241522901</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3660956510342004</v>
+        <v>0.6817590734476084</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.330943149096555</v>
+        <v>1.947610253920942</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.889487445859572</v>
+        <v>5.082171939455918</v>
       </c>
       <c r="C24">
-        <v>0.3515583868961301</v>
+        <v>0.6090033454170509</v>
       </c>
       <c r="D24">
-        <v>0.03032386094601947</v>
+        <v>0.06139580650161491</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.701428079130423</v>
+        <v>0.6564977062916029</v>
       </c>
       <c r="G24">
-        <v>0.002410730122138383</v>
+        <v>0.0007717490754603737</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3429824265300709</v>
+        <v>0.583070751691352</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.332064069401355</v>
+        <v>1.739223357596529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.611188037029365</v>
+        <v>4.15384963423503</v>
       </c>
       <c r="C25">
-        <v>0.3265020420094231</v>
+        <v>0.5336314889653977</v>
       </c>
       <c r="D25">
-        <v>0.02739313356759254</v>
+        <v>0.05270763552672975</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6949270506254379</v>
+        <v>0.5669450215160694</v>
       </c>
       <c r="G25">
-        <v>0.002416128470682645</v>
+        <v>0.0007806304579463869</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3187364039770273</v>
+        <v>0.480140578797517</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.341536183995032</v>
+        <v>1.544884233727572</v>
       </c>
     </row>
   </sheetData>
